--- a/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
     <sheet name="sample_function_002_001" sheetId="1" r:id="rId2"/>
     <sheet name="sample_function_002_002" sheetId="9" r:id="rId3"/>
     <sheet name="sample_function_002_003" sheetId="10" r:id="rId4"/>
+    <sheet name="sample_function_002_004" sheetId="11" r:id="rId5"/>
+    <sheet name="sample_function_002_005" sheetId="12" r:id="rId6"/>
+    <sheet name="sample_function_002_006" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="234">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -547,6 +550,463 @@
   </si>
   <si>
     <t>subfunction_003_input1_return_value[0][10]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_001</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>input1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～100</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_004</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[1]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[2]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[3]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[4]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[5]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[6]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[7]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[8]</t>
+  </si>
+  <si>
+    <t>subfunction_001_return_value[9]</t>
+  </si>
+  <si>
+    <t>subfunction_001_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_001_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_001_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_001_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0～10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_src_002.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[6]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[7]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[8]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[9]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[0][0]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[1][0]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[1][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[2][0]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[2][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[2][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[3][0]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[3][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[3][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[3][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[4][0]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[4][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[4][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[4][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[4][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value_size[0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[5][5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[6][6]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][6]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[7][7]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][6]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][7]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[8][8]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][1]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][2]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][3]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][4]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][5]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][6]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][7]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][8]</t>
+  </si>
+  <si>
+    <t>subfunction_002_input1_value[9][9]</t>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value[2][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_called_count</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value_size[1]</t>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value_size[2]</t>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value_size[3]</t>
+  </si>
+  <si>
+    <t>input1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>_ret_val</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_005</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_src_002.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_006</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value[0][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value[1][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>subfunction_003_input1_return_value[3][0]</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_006</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -670,7 +1130,47 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <border>
+        <top/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1029,9 +1529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1111,22 +1609,46 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C7" s="14"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="14">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C8" s="14"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C9" s="14"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="14">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1803,7 +2325,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D8 M11:P27">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2908,7 +3430,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P41">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2921,9 +3443,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3605,7 +4125,6202 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P27">
-    <cfRule type="expression" dxfId="3" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="53" width="3" style="5" customWidth="1"/>
+    <col min="54" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="L9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+      <c r="W10" s="4">
+        <v>6</v>
+      </c>
+      <c r="X10" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>5</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>6</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>7</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>8</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>9</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>10</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>20</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>40</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="M28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>50</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>60</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="M30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>70</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="3"/>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="M31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>80</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="M32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="M33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="M34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="6">
+        <v>2</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="M35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="6">
+        <v>10</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="M36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="6">
+        <v>20</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="M37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="6">
+        <v>30</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="M38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="6">
+        <v>40</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="M39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="6">
+        <v>50</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="M40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="6">
+        <v>60</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="M41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="6">
+        <v>70</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="M42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="6">
+        <v>80</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="M43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6">
+        <v>2</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6">
+        <v>6</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6">
+        <v>7</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6">
+        <v>8</v>
+      </c>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6">
+        <v>9</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6">
+        <v>10</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D7 M11:P53">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:AB108"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="53" width="3" style="5" customWidth="1"/>
+    <col min="54" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="L9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+      <c r="W10" s="4">
+        <v>6</v>
+      </c>
+      <c r="X10" s="4">
+        <v>7</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>8</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>9</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB10" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>5</v>
+      </c>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>6</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+    </row>
+    <row r="18" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>7</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+    </row>
+    <row r="19" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>8</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>9</v>
+      </c>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3"/>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB20" s="3"/>
+    </row>
+    <row r="21" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>10</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="3"/>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>2</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB24" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>4</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB25" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>5</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA26" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB26" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>6</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB27" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="M28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>7</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z28" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB28" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="M29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA29" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AB29" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="M30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q30" s="6">
+        <v>9</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB30" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="31" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="M31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q31" s="6">
+        <v>10</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="8"/>
+      <c r="M32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="6">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="8"/>
+      <c r="M33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="6">
+        <v>1</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="M34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="6">
+        <v>2</v>
+      </c>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="3"/>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="M35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P35" s="3"/>
+      <c r="Q35" s="6">
+        <v>3</v>
+      </c>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="3"/>
+      <c r="U35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+      <c r="AB35" s="3"/>
+    </row>
+    <row r="36" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="M36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P36" s="3"/>
+      <c r="Q36" s="6">
+        <v>4</v>
+      </c>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="3"/>
+      <c r="U36" s="3"/>
+      <c r="V36" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W36" s="3"/>
+      <c r="X36" s="3"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="3"/>
+      <c r="AB36" s="3"/>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="M37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" s="3"/>
+      <c r="Q37" s="6">
+        <v>5</v>
+      </c>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="3"/>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+      <c r="AB37" s="3"/>
+    </row>
+    <row r="38" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="M38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="6">
+        <v>6</v>
+      </c>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
+    </row>
+    <row r="39" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="M39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="6">
+        <v>7</v>
+      </c>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="M40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="6">
+        <v>8</v>
+      </c>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="M41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P41" s="3"/>
+      <c r="Q41" s="6">
+        <v>9</v>
+      </c>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="3"/>
+      <c r="U41" s="3"/>
+      <c r="V41" s="3"/>
+      <c r="W41" s="3"/>
+      <c r="X41" s="3"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB41" s="3"/>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="M42" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="6">
+        <v>10</v>
+      </c>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="3"/>
+      <c r="U42" s="3"/>
+      <c r="V42" s="3"/>
+      <c r="W42" s="3"/>
+      <c r="X42" s="3"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="3"/>
+      <c r="AB42" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="M43" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P43" s="3"/>
+      <c r="Q43" s="6">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="3"/>
+      <c r="T43" s="3"/>
+      <c r="U43" s="3"/>
+      <c r="V43" s="3"/>
+      <c r="W43" s="3"/>
+      <c r="X43" s="3"/>
+      <c r="Y43" s="3"/>
+      <c r="Z43" s="3"/>
+      <c r="AA43" s="3"/>
+      <c r="AB43" s="3"/>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M44" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6">
+        <v>1</v>
+      </c>
+      <c r="R44" s="3"/>
+      <c r="S44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T44" s="3"/>
+      <c r="U44" s="3"/>
+      <c r="V44" s="3"/>
+      <c r="W44" s="3"/>
+      <c r="X44" s="3"/>
+      <c r="Y44" s="3"/>
+      <c r="Z44" s="3"/>
+      <c r="AA44" s="3"/>
+      <c r="AB44" s="3"/>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M45" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6">
+        <v>2</v>
+      </c>
+      <c r="R45" s="3"/>
+      <c r="S45" s="3"/>
+      <c r="T45" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U45" s="3"/>
+      <c r="V45" s="3"/>
+      <c r="W45" s="3"/>
+      <c r="X45" s="3"/>
+      <c r="Y45" s="3"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="3"/>
+      <c r="AB45" s="3"/>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M46" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3"/>
+      <c r="S46" s="3"/>
+      <c r="T46" s="3"/>
+      <c r="U46" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V46" s="3"/>
+      <c r="W46" s="3"/>
+      <c r="X46" s="3"/>
+      <c r="Y46" s="3"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="3"/>
+      <c r="AB46" s="3"/>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M47" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="3"/>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="M48" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+      <c r="U48" s="3"/>
+      <c r="V48" s="3"/>
+      <c r="W48" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X48" s="3"/>
+      <c r="Y48" s="3"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="3"/>
+      <c r="AB48" s="3"/>
+    </row>
+    <row r="49" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M49" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6">
+        <v>6</v>
+      </c>
+      <c r="R49" s="3"/>
+      <c r="S49" s="3"/>
+      <c r="T49" s="3"/>
+      <c r="U49" s="3"/>
+      <c r="V49" s="3"/>
+      <c r="W49" s="3"/>
+      <c r="X49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y49" s="3"/>
+      <c r="Z49" s="3"/>
+      <c r="AA49" s="3"/>
+      <c r="AB49" s="3"/>
+    </row>
+    <row r="50" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M50" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6">
+        <v>7</v>
+      </c>
+      <c r="R50" s="3"/>
+      <c r="S50" s="3"/>
+      <c r="T50" s="3"/>
+      <c r="U50" s="3"/>
+      <c r="V50" s="3"/>
+      <c r="W50" s="3"/>
+      <c r="X50" s="3"/>
+      <c r="Y50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z50" s="3"/>
+      <c r="AA50" s="3"/>
+      <c r="AB50" s="3"/>
+    </row>
+    <row r="51" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M51" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N51" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6">
+        <v>8</v>
+      </c>
+      <c r="R51" s="3"/>
+      <c r="S51" s="3"/>
+      <c r="T51" s="3"/>
+      <c r="U51" s="3"/>
+      <c r="V51" s="3"/>
+      <c r="W51" s="3"/>
+      <c r="X51" s="3"/>
+      <c r="Y51" s="3"/>
+      <c r="Z51" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA51" s="3"/>
+      <c r="AB51" s="3"/>
+    </row>
+    <row r="52" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M52" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6">
+        <v>9</v>
+      </c>
+      <c r="R52" s="3"/>
+      <c r="S52" s="3"/>
+      <c r="T52" s="3"/>
+      <c r="U52" s="3"/>
+      <c r="V52" s="3"/>
+      <c r="W52" s="3"/>
+      <c r="X52" s="3"/>
+      <c r="Y52" s="3"/>
+      <c r="Z52" s="3"/>
+      <c r="AA52" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB52" s="3"/>
+    </row>
+    <row r="53" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M53" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6">
+        <v>10</v>
+      </c>
+      <c r="R53" s="3"/>
+      <c r="S53" s="3"/>
+      <c r="T53" s="3"/>
+      <c r="U53" s="3"/>
+      <c r="V53" s="3"/>
+      <c r="W53" s="3"/>
+      <c r="X53" s="3"/>
+      <c r="Y53" s="3"/>
+      <c r="Z53" s="3"/>
+      <c r="AA53" s="3"/>
+      <c r="AB53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="54" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M54" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3"/>
+      <c r="S54" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB54" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M55" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O55" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="U55" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="V55" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="W55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB55" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M56" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O56" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6">
+        <v>1</v>
+      </c>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="V56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB56" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M57" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V57" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA57" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3"/>
+      <c r="S58" s="3"/>
+      <c r="T58" s="3"/>
+      <c r="U58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V58" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB58" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M59" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6">
+        <v>2</v>
+      </c>
+      <c r="R59" s="3"/>
+      <c r="S59" s="3"/>
+      <c r="T59" s="3"/>
+      <c r="U59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB59" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA60" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB60" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6">
+        <v>1</v>
+      </c>
+      <c r="R61" s="3"/>
+      <c r="S61" s="3"/>
+      <c r="T61" s="3"/>
+      <c r="U61" s="3"/>
+      <c r="V61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="W61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA61" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB61" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="62" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6">
+        <v>2</v>
+      </c>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA62" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6">
+        <v>3</v>
+      </c>
+      <c r="R63" s="3"/>
+      <c r="S63" s="3"/>
+      <c r="T63" s="3"/>
+      <c r="U63" s="3"/>
+      <c r="V63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="W63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA63" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB63" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="64" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N64" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3"/>
+      <c r="S64" s="3"/>
+      <c r="T64" s="3"/>
+      <c r="U64" s="3"/>
+      <c r="V64" s="3"/>
+      <c r="W64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA64" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB64" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6">
+        <v>1</v>
+      </c>
+      <c r="R65" s="3"/>
+      <c r="S65" s="3"/>
+      <c r="T65" s="3"/>
+      <c r="U65" s="3"/>
+      <c r="V65" s="3"/>
+      <c r="W65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA65" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB65" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6">
+        <v>2</v>
+      </c>
+      <c r="R66" s="3"/>
+      <c r="S66" s="3"/>
+      <c r="T66" s="3"/>
+      <c r="U66" s="3"/>
+      <c r="V66" s="3"/>
+      <c r="W66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="X66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB66" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6">
+        <v>3</v>
+      </c>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="X67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB67" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M68" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6">
+        <v>4</v>
+      </c>
+      <c r="R68" s="3"/>
+      <c r="S68" s="3"/>
+      <c r="T68" s="3"/>
+      <c r="U68" s="3"/>
+      <c r="V68" s="3"/>
+      <c r="W68" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="X68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA68" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB68" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="U69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="3"/>
+      <c r="X69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA69" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB69" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6">
+        <v>1</v>
+      </c>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA70" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB70" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="71" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6">
+        <v>2</v>
+      </c>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB71" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3"/>
+      <c r="S72" s="3"/>
+      <c r="T72" s="3"/>
+      <c r="U72" s="3"/>
+      <c r="V72" s="3"/>
+      <c r="W72" s="3"/>
+      <c r="X72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB72" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6">
+        <v>4</v>
+      </c>
+      <c r="R73" s="3"/>
+      <c r="S73" s="3"/>
+      <c r="T73" s="3"/>
+      <c r="U73" s="3"/>
+      <c r="V73" s="3"/>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA73" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB73" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6">
+        <v>5</v>
+      </c>
+      <c r="R74" s="3"/>
+      <c r="S74" s="3"/>
+      <c r="T74" s="3"/>
+      <c r="U74" s="3"/>
+      <c r="V74" s="3"/>
+      <c r="W74" s="3"/>
+      <c r="X74" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB74" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA75" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB75" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6">
+        <v>1</v>
+      </c>
+      <c r="R76" s="3"/>
+      <c r="S76" s="3"/>
+      <c r="T76" s="3"/>
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB76" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N77" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6">
+        <v>2</v>
+      </c>
+      <c r="R77" s="3"/>
+      <c r="S77" s="3"/>
+      <c r="T77" s="3"/>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA77" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB77" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6">
+        <v>3</v>
+      </c>
+      <c r="R78" s="3"/>
+      <c r="S78" s="3"/>
+      <c r="T78" s="3"/>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA78" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB78" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6">
+        <v>4</v>
+      </c>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB79" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6">
+        <v>5</v>
+      </c>
+      <c r="R80" s="3"/>
+      <c r="S80" s="3"/>
+      <c r="T80" s="3"/>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA80" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB80" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="81" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6">
+        <v>6</v>
+      </c>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+      <c r="T81" s="3"/>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA81" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB81" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="82" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA82" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB82" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6">
+        <v>1</v>
+      </c>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA83" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="84" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6">
+        <v>2</v>
+      </c>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+      <c r="T84" s="3"/>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA84" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB84" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="85" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6">
+        <v>3</v>
+      </c>
+      <c r="R85" s="3"/>
+      <c r="S85" s="3"/>
+      <c r="T85" s="3"/>
+      <c r="U85" s="3"/>
+      <c r="V85" s="3"/>
+      <c r="W85" s="3"/>
+      <c r="X85" s="3"/>
+      <c r="Y85" s="3"/>
+      <c r="Z85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA85" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB85" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6">
+        <v>4</v>
+      </c>
+      <c r="R86" s="3"/>
+      <c r="S86" s="3"/>
+      <c r="T86" s="3"/>
+      <c r="U86" s="3"/>
+      <c r="V86" s="3"/>
+      <c r="W86" s="3"/>
+      <c r="X86" s="3"/>
+      <c r="Y86" s="3"/>
+      <c r="Z86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA86" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB86" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="87" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6">
+        <v>5</v>
+      </c>
+      <c r="R87" s="3"/>
+      <c r="S87" s="3"/>
+      <c r="T87" s="3"/>
+      <c r="U87" s="3"/>
+      <c r="V87" s="3"/>
+      <c r="W87" s="3"/>
+      <c r="X87" s="3"/>
+      <c r="Y87" s="3"/>
+      <c r="Z87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA87" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB87" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="88" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M88" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6">
+        <v>6</v>
+      </c>
+      <c r="R88" s="3"/>
+      <c r="S88" s="3"/>
+      <c r="T88" s="3"/>
+      <c r="U88" s="3"/>
+      <c r="V88" s="3"/>
+      <c r="W88" s="3"/>
+      <c r="X88" s="3"/>
+      <c r="Y88" s="3"/>
+      <c r="Z88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA88" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB88" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6">
+        <v>7</v>
+      </c>
+      <c r="R89" s="3"/>
+      <c r="S89" s="3"/>
+      <c r="T89" s="3"/>
+      <c r="U89" s="3"/>
+      <c r="V89" s="3"/>
+      <c r="W89" s="3"/>
+      <c r="X89" s="3"/>
+      <c r="Y89" s="3"/>
+      <c r="Z89" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="90" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6">
+        <v>0</v>
+      </c>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB90" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6">
+        <v>1</v>
+      </c>
+      <c r="R91" s="3"/>
+      <c r="S91" s="3"/>
+      <c r="T91" s="3"/>
+      <c r="U91" s="3"/>
+      <c r="V91" s="3"/>
+      <c r="W91" s="3"/>
+      <c r="X91" s="3"/>
+      <c r="Y91" s="3"/>
+      <c r="Z91" s="3"/>
+      <c r="AA91" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6">
+        <v>2</v>
+      </c>
+      <c r="R92" s="3"/>
+      <c r="S92" s="3"/>
+      <c r="T92" s="3"/>
+      <c r="U92" s="3"/>
+      <c r="V92" s="3"/>
+      <c r="W92" s="3"/>
+      <c r="X92" s="3"/>
+      <c r="Y92" s="3"/>
+      <c r="Z92" s="3"/>
+      <c r="AA92" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB92" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="93" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O93" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6">
+        <v>3</v>
+      </c>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="3"/>
+      <c r="Z93" s="3"/>
+      <c r="AA93" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB93" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6">
+        <v>4</v>
+      </c>
+      <c r="R94" s="3"/>
+      <c r="S94" s="3"/>
+      <c r="T94" s="3"/>
+      <c r="U94" s="3"/>
+      <c r="V94" s="3"/>
+      <c r="W94" s="3"/>
+      <c r="X94" s="3"/>
+      <c r="Y94" s="3"/>
+      <c r="Z94" s="3"/>
+      <c r="AA94" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6">
+        <v>5</v>
+      </c>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB95" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6">
+        <v>6</v>
+      </c>
+      <c r="R96" s="3"/>
+      <c r="S96" s="3"/>
+      <c r="T96" s="3"/>
+      <c r="U96" s="3"/>
+      <c r="V96" s="3"/>
+      <c r="W96" s="3"/>
+      <c r="X96" s="3"/>
+      <c r="Y96" s="3"/>
+      <c r="Z96" s="3"/>
+      <c r="AA96" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB96" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="97" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6">
+        <v>7</v>
+      </c>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB97" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="98" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6">
+        <v>8</v>
+      </c>
+      <c r="R98" s="3"/>
+      <c r="S98" s="3"/>
+      <c r="T98" s="3"/>
+      <c r="U98" s="3"/>
+      <c r="V98" s="3"/>
+      <c r="W98" s="3"/>
+      <c r="X98" s="3"/>
+      <c r="Y98" s="3"/>
+      <c r="Z98" s="3"/>
+      <c r="AA98" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB98" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O99" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3"/>
+      <c r="S99" s="3"/>
+      <c r="T99" s="3"/>
+      <c r="U99" s="3"/>
+      <c r="V99" s="3"/>
+      <c r="W99" s="3"/>
+      <c r="X99" s="3"/>
+      <c r="Y99" s="3"/>
+      <c r="Z99" s="3"/>
+      <c r="AA99" s="3"/>
+      <c r="AB99" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="100" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6">
+        <v>1</v>
+      </c>
+      <c r="R100" s="3"/>
+      <c r="S100" s="3"/>
+      <c r="T100" s="3"/>
+      <c r="U100" s="3"/>
+      <c r="V100" s="3"/>
+      <c r="W100" s="3"/>
+      <c r="X100" s="3"/>
+      <c r="Y100" s="3"/>
+      <c r="Z100" s="3"/>
+      <c r="AA100" s="3"/>
+      <c r="AB100" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6">
+        <v>2</v>
+      </c>
+      <c r="R101" s="3"/>
+      <c r="S101" s="3"/>
+      <c r="T101" s="3"/>
+      <c r="U101" s="3"/>
+      <c r="V101" s="3"/>
+      <c r="W101" s="3"/>
+      <c r="X101" s="3"/>
+      <c r="Y101" s="3"/>
+      <c r="Z101" s="3"/>
+      <c r="AA101" s="3"/>
+      <c r="AB101" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="102" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3"/>
+      <c r="S102" s="3"/>
+      <c r="T102" s="3"/>
+      <c r="U102" s="3"/>
+      <c r="V102" s="3"/>
+      <c r="W102" s="3"/>
+      <c r="X102" s="3"/>
+      <c r="Y102" s="3"/>
+      <c r="Z102" s="3"/>
+      <c r="AA102" s="3"/>
+      <c r="AB102" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6">
+        <v>4</v>
+      </c>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="104" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6">
+        <v>5</v>
+      </c>
+      <c r="R104" s="3"/>
+      <c r="S104" s="3"/>
+      <c r="T104" s="3"/>
+      <c r="U104" s="3"/>
+      <c r="V104" s="3"/>
+      <c r="W104" s="3"/>
+      <c r="X104" s="3"/>
+      <c r="Y104" s="3"/>
+      <c r="Z104" s="3"/>
+      <c r="AA104" s="3"/>
+      <c r="AB104" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="105" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6">
+        <v>6</v>
+      </c>
+      <c r="R105" s="3"/>
+      <c r="S105" s="3"/>
+      <c r="T105" s="3"/>
+      <c r="U105" s="3"/>
+      <c r="V105" s="3"/>
+      <c r="W105" s="3"/>
+      <c r="X105" s="3"/>
+      <c r="Y105" s="3"/>
+      <c r="Z105" s="3"/>
+      <c r="AA105" s="3"/>
+      <c r="AB105" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6">
+        <v>7</v>
+      </c>
+      <c r="R106" s="3"/>
+      <c r="S106" s="3"/>
+      <c r="T106" s="3"/>
+      <c r="U106" s="3"/>
+      <c r="V106" s="3"/>
+      <c r="W106" s="3"/>
+      <c r="X106" s="3"/>
+      <c r="Y106" s="3"/>
+      <c r="Z106" s="3"/>
+      <c r="AA106" s="3"/>
+      <c r="AB106" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6">
+        <v>8</v>
+      </c>
+      <c r="R107" s="3"/>
+      <c r="S107" s="3"/>
+      <c r="T107" s="3"/>
+      <c r="U107" s="3"/>
+      <c r="V107" s="3"/>
+      <c r="W107" s="3"/>
+      <c r="X107" s="3"/>
+      <c r="Y107" s="3"/>
+      <c r="Z107" s="3"/>
+      <c r="AA107" s="3"/>
+      <c r="AB107" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="108" spans="13:28" x14ac:dyDescent="0.15">
+      <c r="M108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6">
+        <v>9</v>
+      </c>
+      <c r="R108" s="3"/>
+      <c r="S108" s="3"/>
+      <c r="T108" s="3"/>
+      <c r="U108" s="3"/>
+      <c r="V108" s="3"/>
+      <c r="W108" s="3"/>
+      <c r="X108" s="3"/>
+      <c r="Y108" s="3"/>
+      <c r="Z108" s="3"/>
+      <c r="AA108" s="3"/>
+      <c r="AB108" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D7 M11:P108">
+    <cfRule type="expression" dxfId="3" priority="8">
+      <formula>C4=C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="2.125" style="5"/>
+    <col min="3" max="3" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.125" style="5"/>
+    <col min="12" max="12" width="2.375" style="5" customWidth="1"/>
+    <col min="13" max="13" width="9.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="37.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="2.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="22" max="53" width="3" style="5" customWidth="1"/>
+    <col min="54" max="16384" width="2.125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B2" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="L9" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="M10" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>1</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>3</v>
+      </c>
+      <c r="U10" s="4">
+        <v>4</v>
+      </c>
+      <c r="V10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="M11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>0</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="M12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="M13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>2</v>
+      </c>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+      <c r="M14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>3</v>
+      </c>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="M15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="M16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="M17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>2</v>
+      </c>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="M18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>3</v>
+      </c>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V18" s="3"/>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="M19" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>4</v>
+      </c>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="M20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="M21" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>2</v>
+      </c>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="M22" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V22" s="3"/>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="M23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>4</v>
+      </c>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="M24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="6">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="8"/>
+      <c r="M25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="M26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="6">
+        <v>2</v>
+      </c>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="6">
+        <v>3</v>
+      </c>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V27" s="3"/>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="M28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="6">
+        <v>4</v>
+      </c>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="M29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="M30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6">
+        <v>1</v>
+      </c>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="M31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6">
+        <v>2</v>
+      </c>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.15">
+      <c r="M32" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6">
+        <v>3</v>
+      </c>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="V32" s="3"/>
+    </row>
+    <row r="33" spans="13:22" x14ac:dyDescent="0.15">
+      <c r="M33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6">
+        <v>4</v>
+      </c>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="C4:D7 M11:P33">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="241">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -72,13 +72,6 @@
       <t>テイギ</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ソースコードファイル名</t>
-    <rPh sb="10" eb="11">
       <t>メイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -1008,6 +1001,36 @@
   <si>
     <t>sample_function_002_006</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソースファイル名</t>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソースファイルパス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_002.cpp</t>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_001.cpp</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_003.cpp</t>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_004.cpp</t>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_005.cpp</t>
+  </si>
+  <si>
+    <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_006.cpp</t>
   </si>
 </sst>
 </file>
@@ -1130,37 +1153,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <border>
-        <top/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1527,7 +1520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F9"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1538,22 +1531,23 @@
     <col min="4" max="4" width="21.75" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="2.125" style="1"/>
+    <col min="7" max="7" width="69.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
       <c r="C3" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>5</v>
@@ -1562,92 +1556,113 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+        <v>233</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="13"/>
       <c r="C4" s="14">
         <v>1</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C5" s="14">
         <v>2</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C6" s="14">
+        <v>3</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="C6" s="14">
-        <v>3</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C7" s="14">
         <v>4</v>
       </c>
       <c r="D7" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>116</v>
-      </c>
       <c r="F7" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+        <v>138</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C8" s="14">
         <v>5</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="14" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="C9" s="14">
         <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -1692,105 +1707,105 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -1806,21 +1821,21 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -1840,22 +1855,22 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -1870,23 +1885,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -1900,16 +1915,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="6">
         <v>9</v>
@@ -1917,7 +1932,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -1930,16 +1945,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="6">
         <v>10</v>
@@ -1948,7 +1963,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
@@ -1960,22 +1975,22 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="Q15" s="6">
         <v>0</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -1990,23 +2005,23 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -2020,16 +2035,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="6">
         <v>99</v>
@@ -2037,7 +2052,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U17" s="3"/>
     </row>
@@ -2050,16 +2065,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="6">
         <v>100</v>
@@ -2068,7 +2083,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.15">
@@ -2080,20 +2095,20 @@
       <c r="G19" s="9"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" s="3"/>
       <c r="Q19" s="6">
         <v>0</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -2108,13 +2123,13 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P20" s="3"/>
       <c r="Q20" s="6">
@@ -2122,7 +2137,7 @@
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -2136,13 +2151,13 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="3"/>
       <c r="Q21" s="6">
@@ -2151,7 +2166,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U21" s="3"/>
     </row>
@@ -2164,13 +2179,13 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" s="3"/>
       <c r="Q22" s="6">
@@ -2180,7 +2195,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.15">
@@ -2192,29 +2207,29 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.15">
@@ -2226,20 +2241,20 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="P24" s="6"/>
       <c r="Q24" s="6">
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -2254,13 +2269,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P25" s="6"/>
       <c r="Q25" s="6">
@@ -2268,7 +2283,7 @@
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -2282,13 +2297,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P26" s="6"/>
       <c r="Q26" s="6">
@@ -2297,19 +2312,19 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.15">
       <c r="M27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P27" s="6"/>
       <c r="Q27" s="6">
@@ -2319,13 +2334,13 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D8 M11:P27">
-    <cfRule type="expression" dxfId="7" priority="2">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2369,107 +2384,107 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -2485,21 +2500,21 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -2522,22 +2537,22 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2553,23 +2568,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -2584,16 +2599,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -2601,7 +2616,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -2615,16 +2630,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="6">
         <v>9</v>
@@ -2633,7 +2648,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V14" s="3"/>
     </row>
@@ -2646,16 +2661,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="6">
         <v>10</v>
@@ -2665,7 +2680,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.15">
@@ -2677,22 +2692,22 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="6">
         <v>0</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
@@ -2708,23 +2723,23 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q17" s="6">
         <v>1</v>
       </c>
       <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
@@ -2739,16 +2754,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Q18" s="6">
         <v>2</v>
@@ -2756,7 +2771,7 @@
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
@@ -2770,16 +2785,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="6">
         <v>99</v>
@@ -2788,7 +2803,7 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V19" s="3"/>
     </row>
@@ -2801,16 +2816,16 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="6">
         <v>100</v>
@@ -2820,7 +2835,7 @@
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.15">
@@ -2832,22 +2847,22 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="6">
         <v>0</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
@@ -2863,23 +2878,23 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="6">
         <v>1</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -2894,16 +2909,16 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q23" s="6">
         <v>2</v>
@@ -2911,7 +2926,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -2925,16 +2940,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q24" s="6">
         <v>9</v>
@@ -2943,7 +2958,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V24" s="3"/>
     </row>
@@ -2956,16 +2971,16 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="6">
         <v>10</v>
@@ -2975,7 +2990,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.15">
@@ -2987,20 +3002,20 @@
       <c r="G26" s="9"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
         <v>0</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
@@ -3016,13 +3031,13 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
@@ -3030,7 +3045,7 @@
       </c>
       <c r="R27" s="3"/>
       <c r="S27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
@@ -3045,13 +3060,13 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="M28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="6">
@@ -3060,7 +3075,7 @@
       <c r="R28" s="3"/>
       <c r="S28" s="3"/>
       <c r="T28" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
@@ -3074,13 +3089,13 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="M29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="6">
@@ -3090,7 +3105,7 @@
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V29" s="3"/>
     </row>
@@ -3103,13 +3118,13 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="M30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P30" s="3"/>
       <c r="Q30" s="6">
@@ -3120,7 +3135,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
@@ -3132,32 +3147,32 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="M31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P31" s="3"/>
       <c r="Q31" s="6">
         <v>1</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.15">
@@ -3169,32 +3184,32 @@
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="M32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="6">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="V32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.15">
@@ -3206,13 +3221,13 @@
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="M33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="6">
@@ -3221,13 +3236,13 @@
       <c r="R33" s="3"/>
       <c r="S33" s="3"/>
       <c r="T33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V33" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.15">
@@ -3239,13 +3254,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="M34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="6">
@@ -3255,21 +3270,21 @@
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="6">
@@ -3279,21 +3294,21 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="V35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="6">
@@ -3303,21 +3318,21 @@
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V36" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N37" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="6">
@@ -3327,21 +3342,21 @@
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V37" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="V37" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N38" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="6">
@@ -3351,21 +3366,21 @@
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="6">
@@ -3375,21 +3390,21 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V39" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="6">
@@ -3399,21 +3414,21 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="V40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="6">
@@ -3424,13 +3439,13 @@
       <c r="T41" s="3"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P41">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3475,107 +3490,107 @@
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -3591,21 +3606,21 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -3625,22 +3640,22 @@
     </row>
     <row r="11" spans="2:21" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -3655,23 +3670,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3685,16 +3700,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q13" s="6">
         <v>9</v>
@@ -3702,7 +3717,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="3"/>
     </row>
@@ -3715,16 +3730,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="6">
         <v>10</v>
@@ -3733,7 +3748,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.15">
@@ -3745,22 +3760,22 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="6">
         <v>1</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -3775,23 +3790,23 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="6">
         <v>2</v>
       </c>
       <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -3805,16 +3820,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="6">
         <v>99</v>
@@ -3822,7 +3837,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U17" s="3"/>
     </row>
@@ -3835,16 +3850,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q18" s="6">
         <v>100</v>
@@ -3853,7 +3868,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.15">
@@ -3865,22 +3880,22 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="6">
         <v>1</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
@@ -3895,23 +3910,23 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q20" s="6">
         <v>2</v>
       </c>
       <c r="R20" s="3"/>
       <c r="S20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -3925,16 +3940,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="6">
         <v>10</v>
@@ -3942,7 +3957,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U21" s="3"/>
     </row>
@@ -3955,16 +3970,16 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q22" s="6">
         <v>11</v>
@@ -3973,7 +3988,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:21" x14ac:dyDescent="0.15">
@@ -3985,20 +4000,20 @@
       <c r="G23" s="9"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P23" s="3"/>
       <c r="Q23" s="6">
         <v>1</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
@@ -4013,13 +4028,13 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
@@ -4027,7 +4042,7 @@
       </c>
       <c r="R24" s="3"/>
       <c r="S24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
@@ -4041,13 +4056,13 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
@@ -4056,7 +4071,7 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="U25" s="3"/>
     </row>
@@ -4069,13 +4084,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
@@ -4085,7 +4100,7 @@
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.15">
@@ -4097,35 +4112,35 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
         <v>1</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P27">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4170,105 +4185,105 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -4284,21 +4299,21 @@
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -4339,22 +4354,22 @@
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -4376,23 +4391,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -4413,16 +4428,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -4430,7 +4445,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -4450,16 +4465,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -4468,7 +4483,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -4487,16 +4502,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="6">
         <v>4</v>
@@ -4506,7 +4521,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -4524,16 +4539,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="6">
         <v>5</v>
@@ -4544,7 +4559,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -4561,16 +4576,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="6">
         <v>6</v>
@@ -4582,7 +4597,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -4598,16 +4613,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="6">
         <v>7</v>
@@ -4620,7 +4635,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -4635,16 +4650,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="6">
         <v>8</v>
@@ -4658,7 +4673,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -4672,16 +4687,16 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="6">
         <v>9</v>
@@ -4696,7 +4711,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="3"/>
     </row>
@@ -4709,16 +4724,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q21" s="6">
         <v>10</v>
@@ -4734,7 +4749,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.15">
@@ -4746,25 +4761,25 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="6">
         <v>1</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
@@ -4785,16 +4800,16 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="6">
         <v>2</v>
@@ -4802,7 +4817,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
@@ -4822,16 +4837,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="6">
         <v>10</v>
@@ -4840,7 +4855,7 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -4859,16 +4874,16 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q25" s="6">
         <v>20</v>
@@ -4878,7 +4893,7 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
@@ -4896,16 +4911,16 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q26" s="6">
         <v>30</v>
@@ -4916,7 +4931,7 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X26" s="3"/>
       <c r="Y26" s="3"/>
@@ -4933,16 +4948,16 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q27" s="6">
         <v>40</v>
@@ -4954,7 +4969,7 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
@@ -4970,16 +4985,16 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="M28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="6">
         <v>50</v>
@@ -4992,7 +5007,7 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z28" s="3"/>
       <c r="AA28" s="3"/>
@@ -5007,16 +5022,16 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="M29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q29" s="6">
         <v>60</v>
@@ -5030,7 +5045,7 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA29" s="3"/>
       <c r="AB29" s="3"/>
@@ -5044,16 +5059,16 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="M30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q30" s="6">
         <v>70</v>
@@ -5068,7 +5083,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB30" s="3"/>
     </row>
@@ -5081,16 +5096,16 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="M31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q31" s="6">
         <v>80</v>
@@ -5106,7 +5121,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
@@ -5118,20 +5133,20 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="M32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="6">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -5153,13 +5168,13 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
       <c r="M33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="6">
@@ -5167,7 +5182,7 @@
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -5188,13 +5203,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="M34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="6">
@@ -5203,7 +5218,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -5223,13 +5238,13 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="M35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="6">
@@ -5239,7 +5254,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -5258,13 +5273,13 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="M36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="6">
@@ -5275,7 +5290,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -5293,13 +5308,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="M37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="6">
@@ -5311,7 +5326,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -5328,13 +5343,13 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="M38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="6">
@@ -5347,7 +5362,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -5363,13 +5378,13 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="M39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="6">
@@ -5383,7 +5398,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -5398,13 +5413,13 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="M40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="6">
@@ -5419,7 +5434,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -5433,13 +5448,13 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="M41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="6">
@@ -5455,7 +5470,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB41" s="3"/>
     </row>
@@ -5468,13 +5483,13 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="M42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="6">
@@ -5491,7 +5506,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
@@ -5503,20 +5518,20 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="M43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="6">
         <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -5531,13 +5546,13 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6">
@@ -5545,7 +5560,7 @@
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -5559,13 +5574,13 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6">
@@ -5574,7 +5589,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -5587,13 +5602,13 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6">
@@ -5603,7 +5618,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -5615,13 +5630,13 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="6">
@@ -5632,7 +5647,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -5643,13 +5658,13 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6">
@@ -5661,7 +5676,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -5671,13 +5686,13 @@
     </row>
     <row r="49" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6">
@@ -5690,7 +5705,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
@@ -5699,13 +5714,13 @@
     </row>
     <row r="50" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6">
@@ -5719,7 +5734,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
@@ -5727,13 +5742,13 @@
     </row>
     <row r="51" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="6">
@@ -5748,20 +5763,20 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P52" s="6"/>
       <c r="Q52" s="6">
@@ -5777,19 +5792,19 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6">
@@ -5806,13 +5821,13 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P53">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5857,107 +5872,107 @@
     </row>
     <row r="3" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -5973,21 +5988,21 @@
     </row>
     <row r="9" spans="2:28" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -6028,22 +6043,22 @@
     </row>
     <row r="11" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -6065,23 +6080,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -6102,16 +6117,16 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -6119,7 +6134,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -6139,16 +6154,16 @@
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -6157,7 +6172,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -6176,16 +6191,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q15" s="6">
         <v>4</v>
@@ -6195,7 +6210,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
@@ -6213,16 +6228,16 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="6">
         <v>5</v>
@@ -6233,7 +6248,7 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -6250,16 +6265,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q17" s="6">
         <v>6</v>
@@ -6271,7 +6286,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
@@ -6287,16 +6302,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q18" s="6">
         <v>7</v>
@@ -6309,7 +6324,7 @@
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -6324,16 +6339,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="6">
         <v>8</v>
@@ -6347,7 +6362,7 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -6361,16 +6376,16 @@
       <c r="G20" s="9"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q20" s="6">
         <v>9</v>
@@ -6385,7 +6400,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB20" s="3"/>
     </row>
@@ -6398,16 +6413,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="6">
         <v>10</v>
@@ -6423,7 +6438,7 @@
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:28" x14ac:dyDescent="0.15">
@@ -6435,50 +6450,50 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="6">
         <v>1</v>
       </c>
       <c r="R22" s="3"/>
       <c r="S22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T22" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="U22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V22" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X22" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB22" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="2:28" x14ac:dyDescent="0.15">
@@ -6490,16 +6505,16 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q23" s="6">
         <v>2</v>
@@ -6507,31 +6522,31 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V23" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y23" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="Z23" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="Z23" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="AA23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
@@ -6543,16 +6558,16 @@
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q24" s="6">
         <v>3</v>
@@ -6561,28 +6576,28 @@
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V24" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="W24" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="X24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA24" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AB24" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
@@ -6594,16 +6609,16 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="6">
         <v>4</v>
@@ -6613,25 +6628,25 @@
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA25" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB25" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:28" x14ac:dyDescent="0.15">
@@ -6643,16 +6658,16 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P26" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q26" s="6">
         <v>5</v>
@@ -6663,22 +6678,22 @@
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB26" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="2:28" x14ac:dyDescent="0.15">
@@ -6690,16 +6705,16 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q27" s="6">
         <v>6</v>
@@ -6711,19 +6726,19 @@
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
       <c r="X27" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA27" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB27" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:28" x14ac:dyDescent="0.15">
@@ -6735,16 +6750,16 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="M28" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Q28" s="6">
         <v>7</v>
@@ -6757,16 +6772,16 @@
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
       <c r="Y28" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB28" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
@@ -6778,16 +6793,16 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="M29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="P29" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q29" s="6">
         <v>8</v>
@@ -6801,13 +6816,13 @@
       <c r="X29" s="3"/>
       <c r="Y29" s="3"/>
       <c r="Z29" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA29" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AB29" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
@@ -6819,16 +6834,16 @@
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="M30" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N30" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P30" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q30" s="6">
         <v>9</v>
@@ -6843,10 +6858,10 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
       <c r="AA30" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB30" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
@@ -6858,16 +6873,16 @@
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="M31" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N31" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q31" s="6">
         <v>10</v>
@@ -6883,7 +6898,7 @@
       <c r="Z31" s="3"/>
       <c r="AA31" s="3"/>
       <c r="AB31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
@@ -6895,20 +6910,20 @@
       <c r="G32" s="9"/>
       <c r="H32" s="8"/>
       <c r="M32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P32" s="3"/>
       <c r="Q32" s="6">
         <v>0</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
@@ -6930,13 +6945,13 @@
       <c r="G33" s="9"/>
       <c r="H33" s="8"/>
       <c r="M33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P33" s="3"/>
       <c r="Q33" s="6">
@@ -6944,7 +6959,7 @@
       </c>
       <c r="R33" s="3"/>
       <c r="S33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
@@ -6965,13 +6980,13 @@
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="M34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P34" s="3"/>
       <c r="Q34" s="6">
@@ -6980,7 +6995,7 @@
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
@@ -7000,13 +7015,13 @@
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="M35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P35" s="3"/>
       <c r="Q35" s="6">
@@ -7016,7 +7031,7 @@
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -7035,13 +7050,13 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="M36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P36" s="3"/>
       <c r="Q36" s="6">
@@ -7052,7 +7067,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -7070,13 +7085,13 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="M37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P37" s="3"/>
       <c r="Q37" s="6">
@@ -7088,7 +7103,7 @@
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X37" s="3"/>
       <c r="Y37" s="3"/>
@@ -7105,13 +7120,13 @@
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="M38" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N38" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P38" s="3"/>
       <c r="Q38" s="6">
@@ -7124,7 +7139,7 @@
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
       <c r="X38" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
@@ -7140,13 +7155,13 @@
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="M39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N39" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P39" s="3"/>
       <c r="Q39" s="6">
@@ -7160,7 +7175,7 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
@@ -7175,13 +7190,13 @@
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="M40" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N40" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P40" s="3"/>
       <c r="Q40" s="6">
@@ -7196,7 +7211,7 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
@@ -7210,13 +7225,13 @@
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
       <c r="M41" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P41" s="3"/>
       <c r="Q41" s="6">
@@ -7232,7 +7247,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
       <c r="AA41" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB41" s="3"/>
     </row>
@@ -7245,13 +7260,13 @@
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
       <c r="M42" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P42" s="3"/>
       <c r="Q42" s="6">
@@ -7268,7 +7283,7 @@
       <c r="Z42" s="3"/>
       <c r="AA42" s="3"/>
       <c r="AB42" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
@@ -7280,20 +7295,20 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="M43" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P43" s="3"/>
       <c r="Q43" s="6">
         <v>0</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S43" s="3"/>
       <c r="T43" s="3"/>
@@ -7308,13 +7323,13 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M44" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N44" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P44" s="6"/>
       <c r="Q44" s="6">
@@ -7322,7 +7337,7 @@
       </c>
       <c r="R44" s="3"/>
       <c r="S44" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T44" s="3"/>
       <c r="U44" s="3"/>
@@ -7336,13 +7351,13 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M45" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P45" s="6"/>
       <c r="Q45" s="6">
@@ -7351,7 +7366,7 @@
       <c r="R45" s="3"/>
       <c r="S45" s="3"/>
       <c r="T45" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
@@ -7364,13 +7379,13 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M46" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N46" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P46" s="6"/>
       <c r="Q46" s="6">
@@ -7380,7 +7395,7 @@
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
       <c r="U46" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -7392,13 +7407,13 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M47" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P47" s="6"/>
       <c r="Q47" s="6">
@@ -7409,7 +7424,7 @@
       <c r="T47" s="3"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W47" s="3"/>
       <c r="X47" s="3"/>
@@ -7420,13 +7435,13 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="M48" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P48" s="6"/>
       <c r="Q48" s="6">
@@ -7438,7 +7453,7 @@
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X48" s="3"/>
       <c r="Y48" s="3"/>
@@ -7448,13 +7463,13 @@
     </row>
     <row r="49" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M49" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P49" s="6"/>
       <c r="Q49" s="6">
@@ -7467,7 +7482,7 @@
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
       <c r="X49" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
@@ -7476,13 +7491,13 @@
     </row>
     <row r="50" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M50" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N50" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O50" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P50" s="6"/>
       <c r="Q50" s="6">
@@ -7496,7 +7511,7 @@
       <c r="W50" s="3"/>
       <c r="X50" s="3"/>
       <c r="Y50" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z50" s="3"/>
       <c r="AA50" s="3"/>
@@ -7504,13 +7519,13 @@
     </row>
     <row r="51" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M51" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P51" s="6"/>
       <c r="Q51" s="6">
@@ -7525,20 +7540,20 @@
       <c r="X51" s="3"/>
       <c r="Y51" s="3"/>
       <c r="Z51" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA51" s="3"/>
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M52" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P52" s="6"/>
       <c r="Q52" s="6">
@@ -7554,19 +7569,19 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
       <c r="AA52" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M53" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P53" s="6"/>
       <c r="Q53" s="6">
@@ -7583,18 +7598,18 @@
       <c r="Z53" s="3"/>
       <c r="AA53" s="3"/>
       <c r="AB53" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M54" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P54" s="6"/>
       <c r="Q54" s="6">
@@ -7602,45 +7617,45 @@
       </c>
       <c r="R54" s="3"/>
       <c r="S54" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB54" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M55" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N55" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="P55" s="6"/>
       <c r="Q55" s="6">
@@ -7649,42 +7664,42 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="U55" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V55" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="W55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB55" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M56" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="P56" s="6"/>
       <c r="Q56" s="6">
@@ -7693,42 +7708,42 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U56" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB56" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M57" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P57" s="6"/>
       <c r="Q57" s="6">
@@ -7738,39 +7753,39 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
       <c r="U57" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V57" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="X57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB57" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="58" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M58" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P58" s="6"/>
       <c r="Q58" s="6">
@@ -7780,39 +7795,39 @@
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
       <c r="U58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V58" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P59" s="6"/>
       <c r="Q59" s="6">
@@ -7822,39 +7837,39 @@
       <c r="S59" s="3"/>
       <c r="T59" s="3"/>
       <c r="U59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V59" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="W59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB59" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M60" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="P60" s="6"/>
       <c r="Q60" s="6">
@@ -7865,36 +7880,36 @@
       <c r="T60" s="3"/>
       <c r="U60" s="3"/>
       <c r="V60" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="W60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Y60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB60" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="61" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M61" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P61" s="6"/>
       <c r="Q61" s="6">
@@ -7905,36 +7920,36 @@
       <c r="T61" s="3"/>
       <c r="U61" s="3"/>
       <c r="V61" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB61" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="62" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M62" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="P62" s="6"/>
       <c r="Q62" s="6">
@@ -7945,36 +7960,36 @@
       <c r="T62" s="3"/>
       <c r="U62" s="3"/>
       <c r="V62" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB62" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="63" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M63" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="P63" s="6"/>
       <c r="Q63" s="6">
@@ -7985,36 +8000,36 @@
       <c r="T63" s="3"/>
       <c r="U63" s="3"/>
       <c r="V63" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="W63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB63" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M64" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P64" s="6"/>
       <c r="Q64" s="6">
@@ -8026,33 +8041,33 @@
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
       <c r="W64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB64" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M65" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N65" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P65" s="6"/>
       <c r="Q65" s="6">
@@ -8064,33 +8079,33 @@
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
       <c r="W65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB65" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M66" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P66" s="6"/>
       <c r="Q66" s="6">
@@ -8102,33 +8117,33 @@
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
       <c r="W66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="X66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AA66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB66" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M67" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N67" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P67" s="6"/>
       <c r="Q67" s="6">
@@ -8140,33 +8155,33 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AB67" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="68" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M68" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N68" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="P68" s="6"/>
       <c r="Q68" s="6">
@@ -8178,33 +8193,33 @@
       <c r="U68" s="3"/>
       <c r="V68" s="3"/>
       <c r="W68" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="X68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB68" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M69" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N69" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P69" s="6"/>
       <c r="Q69" s="6">
@@ -8217,30 +8232,30 @@
       <c r="V69" s="3"/>
       <c r="W69" s="3"/>
       <c r="X69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB69" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M70" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N70" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P70" s="6"/>
       <c r="Q70" s="6">
@@ -8253,30 +8268,30 @@
       <c r="V70" s="3"/>
       <c r="W70" s="3"/>
       <c r="X70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB70" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M71" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N71" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="P71" s="6"/>
       <c r="Q71" s="6">
@@ -8289,30 +8304,30 @@
       <c r="V71" s="3"/>
       <c r="W71" s="3"/>
       <c r="X71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB71" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M72" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="P72" s="6"/>
       <c r="Q72" s="6">
@@ -8325,30 +8340,30 @@
       <c r="V72" s="3"/>
       <c r="W72" s="3"/>
       <c r="X72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB72" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="73" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M73" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N73" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P73" s="6"/>
       <c r="Q73" s="6">
@@ -8361,30 +8376,30 @@
       <c r="V73" s="3"/>
       <c r="W73" s="3"/>
       <c r="X73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Y73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M74" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N74" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P74" s="6"/>
       <c r="Q74" s="6">
@@ -8397,30 +8412,30 @@
       <c r="V74" s="3"/>
       <c r="W74" s="3"/>
       <c r="X74" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Y74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB74" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M75" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="P75" s="6"/>
       <c r="Q75" s="6">
@@ -8434,27 +8449,27 @@
       <c r="W75" s="3"/>
       <c r="X75" s="3"/>
       <c r="Y75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB75" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M76" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="P76" s="6"/>
       <c r="Q76" s="6">
@@ -8468,27 +8483,27 @@
       <c r="W76" s="3"/>
       <c r="X76" s="3"/>
       <c r="Y76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB76" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M77" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N77" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="P77" s="6"/>
       <c r="Q77" s="6">
@@ -8502,27 +8517,27 @@
       <c r="W77" s="3"/>
       <c r="X77" s="3"/>
       <c r="Y77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB77" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M78" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N78" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P78" s="6"/>
       <c r="Q78" s="6">
@@ -8536,27 +8551,27 @@
       <c r="W78" s="3"/>
       <c r="X78" s="3"/>
       <c r="Y78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Z78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB78" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M79" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N79" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O79" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P79" s="6"/>
       <c r="Q79" s="6">
@@ -8570,27 +8585,27 @@
       <c r="W79" s="3"/>
       <c r="X79" s="3"/>
       <c r="Y79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Z79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB79" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="80" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M80" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N80" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P80" s="6"/>
       <c r="Q80" s="6">
@@ -8604,27 +8619,27 @@
       <c r="W80" s="3"/>
       <c r="X80" s="3"/>
       <c r="Y80" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z80" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA80" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB80" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="81" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M81" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="P81" s="6"/>
       <c r="Q81" s="6">
@@ -8638,27 +8653,27 @@
       <c r="W81" s="3"/>
       <c r="X81" s="3"/>
       <c r="Y81" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB81" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="82" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M82" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N82" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="P82" s="6"/>
       <c r="Q82" s="6">
@@ -8673,24 +8688,24 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB82" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M83" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="P83" s="6"/>
       <c r="Q83" s="6">
@@ -8705,24 +8720,24 @@
       <c r="X83" s="3"/>
       <c r="Y83" s="3"/>
       <c r="Z83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB83" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M84" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N84" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="P84" s="6"/>
       <c r="Q84" s="6">
@@ -8737,24 +8752,24 @@
       <c r="X84" s="3"/>
       <c r="Y84" s="3"/>
       <c r="Z84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AA84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB84" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M85" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N85" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="P85" s="6"/>
       <c r="Q85" s="6">
@@ -8769,24 +8784,24 @@
       <c r="X85" s="3"/>
       <c r="Y85" s="3"/>
       <c r="Z85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AB85" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M86" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N86" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P86" s="6"/>
       <c r="Q86" s="6">
@@ -8801,24 +8816,24 @@
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
       <c r="Z86" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AA86" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB86" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M87" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N87" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O87" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="P87" s="6"/>
       <c r="Q87" s="6">
@@ -8833,24 +8848,24 @@
       <c r="X87" s="3"/>
       <c r="Y87" s="3"/>
       <c r="Z87" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA87" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AB87" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M88" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N88" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O88" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="P88" s="6"/>
       <c r="Q88" s="6">
@@ -8865,24 +8880,24 @@
       <c r="X88" s="3"/>
       <c r="Y88" s="3"/>
       <c r="Z88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB88" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M89" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P89" s="6"/>
       <c r="Q89" s="6">
@@ -8897,24 +8912,24 @@
       <c r="X89" s="3"/>
       <c r="Y89" s="3"/>
       <c r="Z89" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AA89" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB89" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="90" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M90" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N90" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P90" s="6"/>
       <c r="Q90" s="6">
@@ -8930,21 +8945,21 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB90" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="91" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M91" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P91" s="6"/>
       <c r="Q91" s="6">
@@ -8960,21 +8975,21 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
       <c r="AA91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB91" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="92" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M92" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N92" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="P92" s="6"/>
       <c r="Q92" s="6">
@@ -8990,21 +9005,21 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
       <c r="AA92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB92" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M93" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N93" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P93" s="6"/>
       <c r="Q93" s="6">
@@ -9020,21 +9035,21 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
       <c r="AA93" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB93" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M94" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P94" s="6"/>
       <c r="Q94" s="6">
@@ -9050,21 +9065,21 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
       <c r="AA94" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB94" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M95" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N95" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P95" s="6"/>
       <c r="Q95" s="6">
@@ -9080,21 +9095,21 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AB95" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="96" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M96" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N96" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P96" s="6"/>
       <c r="Q96" s="6">
@@ -9110,21 +9125,21 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
       <c r="AA96" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB96" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M97" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N97" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P97" s="6"/>
       <c r="Q97" s="6">
@@ -9140,21 +9155,21 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
       <c r="AA97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB97" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M98" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N98" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P98" s="6"/>
       <c r="Q98" s="6">
@@ -9170,21 +9185,21 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
       <c r="AA98" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="AB98" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="AB98" s="3" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="99" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M99" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N99" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="P99" s="6"/>
       <c r="Q99" s="6">
@@ -9201,18 +9216,18 @@
       <c r="Z99" s="3"/>
       <c r="AA99" s="3"/>
       <c r="AB99" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M100" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P100" s="6"/>
       <c r="Q100" s="6">
@@ -9229,18 +9244,18 @@
       <c r="Z100" s="3"/>
       <c r="AA100" s="3"/>
       <c r="AB100" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M101" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P101" s="6"/>
       <c r="Q101" s="6">
@@ -9257,18 +9272,18 @@
       <c r="Z101" s="3"/>
       <c r="AA101" s="3"/>
       <c r="AB101" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M102" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P102" s="6"/>
       <c r="Q102" s="6">
@@ -9285,18 +9300,18 @@
       <c r="Z102" s="3"/>
       <c r="AA102" s="3"/>
       <c r="AB102" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="103" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M103" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N103" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P103" s="6"/>
       <c r="Q103" s="6">
@@ -9313,18 +9328,18 @@
       <c r="Z103" s="3"/>
       <c r="AA103" s="3"/>
       <c r="AB103" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="104" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M104" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N104" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P104" s="6"/>
       <c r="Q104" s="6">
@@ -9341,18 +9356,18 @@
       <c r="Z104" s="3"/>
       <c r="AA104" s="3"/>
       <c r="AB104" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="105" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M105" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N105" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P105" s="6"/>
       <c r="Q105" s="6">
@@ -9369,18 +9384,18 @@
       <c r="Z105" s="3"/>
       <c r="AA105" s="3"/>
       <c r="AB105" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="106" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M106" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N106" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P106" s="6"/>
       <c r="Q106" s="6">
@@ -9397,18 +9412,18 @@
       <c r="Z106" s="3"/>
       <c r="AA106" s="3"/>
       <c r="AB106" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="107" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M107" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N107" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O107" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P107" s="6"/>
       <c r="Q107" s="6">
@@ -9425,18 +9440,18 @@
       <c r="Z107" s="3"/>
       <c r="AA107" s="3"/>
       <c r="AB107" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="13:28" x14ac:dyDescent="0.15">
       <c r="M108" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N108" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O108" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P108" s="6"/>
       <c r="Q108" s="6">
@@ -9453,13 +9468,13 @@
       <c r="Z108" s="3"/>
       <c r="AA108" s="3"/>
       <c r="AB108" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P108">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="1" priority="8">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9504,107 +9519,107 @@
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>13</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.15">
       <c r="C7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" s="6"/>
     </row>
@@ -9620,21 +9635,21 @@
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M10" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N10" s="4" t="s">
         <v>1</v>
       </c>
       <c r="O10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="P10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="P10" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>2</v>
@@ -9657,22 +9672,22 @@
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="6">
         <v>0</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -9688,23 +9703,23 @@
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q12" s="6">
         <v>1</v>
       </c>
       <c r="R12" s="3"/>
       <c r="S12" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -9719,16 +9734,16 @@
       <c r="G13" s="9"/>
       <c r="H13" s="8"/>
       <c r="M13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" s="6">
         <v>2</v>
@@ -9736,7 +9751,7 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
@@ -9750,16 +9765,16 @@
       <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="M14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" s="6">
         <v>3</v>
@@ -9768,7 +9783,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V14" s="3"/>
     </row>
@@ -9781,16 +9796,16 @@
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="M15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" s="6">
         <v>4</v>
@@ -9800,7 +9815,7 @@
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.15">
@@ -9812,25 +9827,25 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
       <c r="M16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q16" s="6">
         <v>1</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
@@ -9845,16 +9860,16 @@
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
       <c r="M17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q17" s="6">
         <v>2</v>
@@ -9862,7 +9877,7 @@
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -9876,16 +9891,16 @@
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
       <c r="M18" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P18" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="6">
         <v>3</v>
@@ -9894,7 +9909,7 @@
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V18" s="3"/>
     </row>
@@ -9907,16 +9922,16 @@
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="M19" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="6">
         <v>4</v>
@@ -9926,7 +9941,7 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.15">
@@ -9938,25 +9953,25 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="M20" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P20" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="6">
         <v>1</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
@@ -9971,16 +9986,16 @@
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="M21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="6">
         <v>2</v>
@@ -9988,7 +10003,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
@@ -10002,16 +10017,16 @@
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="M22" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q22" s="6">
         <v>3</v>
@@ -10020,7 +10035,7 @@
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V22" s="3"/>
     </row>
@@ -10033,16 +10048,16 @@
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="M23" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P23" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="6">
         <v>4</v>
@@ -10052,7 +10067,7 @@
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.15">
@@ -10064,20 +10079,20 @@
       <c r="G24" s="9"/>
       <c r="H24" s="8"/>
       <c r="M24" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P24" s="3"/>
       <c r="Q24" s="6">
         <v>0</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
@@ -10093,13 +10108,13 @@
       <c r="G25" s="9"/>
       <c r="H25" s="8"/>
       <c r="M25" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="3"/>
       <c r="Q25" s="6">
@@ -10107,7 +10122,7 @@
       </c>
       <c r="R25" s="3"/>
       <c r="S25" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
@@ -10122,13 +10137,13 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="M26" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P26" s="3"/>
       <c r="Q26" s="6">
@@ -10137,7 +10152,7 @@
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
@@ -10151,13 +10166,13 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="M27" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P27" s="3"/>
       <c r="Q27" s="6">
@@ -10167,7 +10182,7 @@
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V27" s="3"/>
     </row>
@@ -10180,13 +10195,13 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="M28" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P28" s="3"/>
       <c r="Q28" s="6">
@@ -10197,7 +10212,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.15">
@@ -10209,20 +10224,20 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="M29" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P29" s="3"/>
       <c r="Q29" s="6">
         <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
@@ -10231,13 +10246,13 @@
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M30" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P30" s="6"/>
       <c r="Q30" s="6">
@@ -10245,7 +10260,7 @@
       </c>
       <c r="R30" s="3"/>
       <c r="S30" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
@@ -10253,13 +10268,13 @@
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M31" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P31" s="6"/>
       <c r="Q31" s="6">
@@ -10268,20 +10283,20 @@
       <c r="R31" s="3"/>
       <c r="S31" s="3"/>
       <c r="T31" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.15">
       <c r="M32" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P32" s="6"/>
       <c r="Q32" s="6">
@@ -10291,19 +10306,19 @@
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V32" s="3"/>
     </row>
     <row r="33" spans="13:22" x14ac:dyDescent="0.15">
       <c r="M33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N33" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P33" s="6"/>
       <c r="Q33" s="6">
@@ -10314,13 +10329,13 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:D7 M11:P33">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>C4=C3</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="242">
   <si>
     <t>○対象関数情報</t>
     <rPh sb="1" eb="7">
@@ -1031,6 +1031,10 @@
   </si>
   <si>
     <t>E:\development\AutoTestPrep\doc\sample\test_sample_input\sample_src_006.cpp</t>
+  </si>
+  <si>
+    <t>○テスト/デシジョンテーブル</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -1522,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1676,7 +1680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1821,7 +1827,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>32</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">

--- a/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1680,9 +1680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:U27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>

--- a/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
+++ b/doc/sample/test_sample_input/google_test_sample_data_002.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="882" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="テスト一覧" sheetId="2" r:id="rId1"/>
@@ -983,10 +983,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>sample_function_002_006</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>subfunction_003_input1_return_value[0][0]</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1034,6 +1030,10 @@
   </si>
   <si>
     <t>○テスト/デシジョンテーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>sample_function_002_005</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1526,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1560,10 +1560,10 @@
         <v>6</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>43</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
@@ -1598,7 +1598,7 @@
         <v>43</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.2">
@@ -1615,7 +1615,7 @@
         <v>42</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
@@ -1632,7 +1632,7 @@
         <v>138</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
@@ -1649,7 +1649,7 @@
         <v>226</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
@@ -1666,7 +1666,7 @@
         <v>226</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +1825,7 @@
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.15">
       <c r="L9" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.15">
@@ -5844,7 +5844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AB108"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.125" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6" t="s">
@@ -9837,7 +9837,7 @@
         <v>51</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>54</v>
@@ -9870,7 +9870,7 @@
         <v>51</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>54</v>
@@ -9932,7 +9932,7 @@
         <v>51</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>54</v>
